--- a/statistics/HistoricalDistanceData/historical_distance/Q60519438-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519438-en.xlsx
@@ -34,54 +34,54 @@
     <t>Hawaii Voter Surveys: How Different Groups Voted</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Hawaii Primary Election Results 2020</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>Nevada and South Carolina GOP cancel 2020 presidential nominating contests</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Green Party of Hawai'i Presidential Preference Poll</t>
+  </si>
+  <si>
+    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
+  </si>
+  <si>
     <t>How Asian Americans Are Thinking About The 2020 Election</t>
   </si>
   <si>
-    <t>Green Party of Hawai'i Presidential Preference Poll</t>
-  </si>
-  <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Nevada and South Carolina GOP cancel 2020 presidential nominating contests</t>
-  </si>
-  <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
-    <t>Hawaii Primary Election Results 2020</t>
-  </si>
-  <si>
-    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
-  </si>
-  <si>
     <t>2020-11-03T19:12:47UTC</t>
   </si>
   <si>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-05-23T18:15:40UTC</t>
+  </si>
+  <si>
+    <t>2019-09-07T18:09:00UTC</t>
+  </si>
+  <si>
+    <t>2020-08-06T13:13:00UTC</t>
+  </si>
+  <si>
     <t>2020-09-18T07:00:02UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2019-09-07T18:09:00UTC</t>
-  </si>
-  <si>
-    <t>2020-05-23T18:15:40UTC</t>
-  </si>
-  <si>
-    <t>2020-08-06T13:13:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -91,31 +91,31 @@
     <t>https://www.nytimes.com/interactive/2020/11/03/us/elections/ap-polls-hawaii.html</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/interactive/2020/05/23/us/elections/results-hawaii-president-democrat-primary-election.html</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/Politics/trump-gop-canceling-gop-primaries-caucuses/story?id=65436462</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.opavote.com/results/6550183955398656</t>
+  </si>
+  <si>
+    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
+  </si>
+  <si>
     <t>https://fivethirtyeight.com/features/how-asian-americans-are-thinking-about-the-2020-election/</t>
   </si>
   <si>
-    <t>https://www.opavote.com/results/6550183955398656</t>
-  </si>
-  <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/Politics/trump-gop-canceling-gop-primaries-caucuses/story?id=65436462</t>
-  </si>
-  <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/interactive/2020/05/23/us/elections/results-hawaii-president-democrat-primary-election.html</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
